--- a/系统模块/物理表/产品工艺信息.xlsx
+++ b/系统模块/物理表/产品工艺信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ERP\物理表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ERP\ERP\系统模块\物理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C3796-C830-487B-99DF-FBAF4DBE88B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39378138-1D71-4D22-A5F5-54E9A3D5F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -556,21 +556,13 @@
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -583,6 +575,10 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -592,11 +588,17 @@
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统模块/物理表/产品工艺信息.xlsx
+++ b/系统模块/物理表/产品工艺信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ERP\ERP\系统模块\物理表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ERP\物理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39378138-1D71-4D22-A5F5-54E9A3D5F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C3796-C830-487B-99DF-FBAF4DBE88B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -556,13 +556,21 @@
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -575,10 +583,6 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -588,17 +592,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
